--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45992</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44504</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44278</v>
+        <v>45992</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45803.59570601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45085.6989699074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45771.63034722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45992</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45803.59570601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45085.6989699074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45771.63034722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45992</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44504</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>44504</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>45992</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10.1</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45992</v>
+        <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44278</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>44278</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>44504</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44504</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45992</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44278</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>10.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45992</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44278</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.7</v>
+        <v>10.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44504</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10.1</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>45992</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44504</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44278</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>10.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45992</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45992</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45803.59570601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10.1</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45992</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>10.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45992</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45803.59570601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45992</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>45085.6989699074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45771.63034722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45992</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44504</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45992</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>44504</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>10.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44504</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>44278</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44278</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45085.6989699074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45771.63034722222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44278</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>45803.59570601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45085.6989699074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45771.63034722222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44278</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>45803.59570601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44504</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>44504</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>44278</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>10.1</v>
+        <v>6.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44278</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44504</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44278</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45992</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>10.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45992</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>44278</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 19922-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44504</v>
+        <v>45771.63034722222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,14 +973,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 25015-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>45085.6989699074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>44504</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25015-2023</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45085.6989699074</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19922-2025</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45771.63034722222</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10.1</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45992</v>
+        <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45992</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44278</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45771.63034722222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45085.6989699074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,14 +1030,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 62884-2021</t>
+          <t>A 28266-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44504</v>
+        <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,14 +1087,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25634-2025</t>
+          <t>A 62884-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45803.59570601852</v>
+        <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1144,14 +1144,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28266-2025</t>
+          <t>A 60024-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45818.56381944445</v>
+        <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1201,14 +1201,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14271-2021</t>
+          <t>A 3402-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44278</v>
+        <v>46042.39047453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 60024-2025</t>
+          <t>A 14271-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45992</v>
+        <v>44278</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1315,14 +1315,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3402-2026</t>
+          <t>A 25634-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46042.39047453704</v>
+        <v>45803.59570601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45882.62430555555</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44294</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45771.63034722222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45085.6989699074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45818.56381944445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>46042.39047453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44278</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>45803.59570601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
